--- a/FiveGuys_Deliverable_1_SprintBacklog_1.xlsx
+++ b/FiveGuys_Deliverable_1_SprintBacklog_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3105DAA8-B0BF-4588-9D83-719829C32DBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF17384-B20B-46C3-819A-75736004F89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
   <si>
     <t>Sprint Goal &amp; Number</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Complete SRS document</t>
   </si>
   <si>
-    <t>NF</t>
-  </si>
-  <si>
-    <t>Forrest-4, Alex-3, peter-1</t>
-  </si>
-  <si>
     <t>Revise project description</t>
   </si>
   <si>
@@ -64,23 +58,326 @@
     <t>Create Product backlog</t>
   </si>
   <si>
-    <t>Austin-2, Forrest-2</t>
-  </si>
-  <si>
     <t>Create Sprint backlog</t>
   </si>
   <si>
-    <t>Spencer-4</t>
-  </si>
-  <si>
     <t>Create source file for code</t>
+  </si>
+  <si>
+    <t>Dev.</t>
+  </si>
+  <si>
+    <t>Doc.</t>
+  </si>
+  <si>
+    <t>Austin-1, Forrest-1</t>
+  </si>
+  <si>
+    <t>Project Description</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Alex-4</t>
+  </si>
+  <si>
+    <t>Forrest-4</t>
+  </si>
+  <si>
+    <t>Forrest-4, Alex-4, Peter-1</t>
+  </si>
+  <si>
+    <t>Create Use Case Models</t>
+  </si>
+  <si>
+    <t>Create mockup</t>
+  </si>
+  <si>
+    <t>Begin board development</t>
+  </si>
+  <si>
+    <t>Sprint Review 2</t>
+  </si>
+  <si>
+    <t>Forrest - 4</t>
+  </si>
+  <si>
+    <t>Finish/update Sprint backlog</t>
+  </si>
+  <si>
+    <t>Finish/update Product backlog</t>
+  </si>
+  <si>
+    <t>Update SRS based on feedback</t>
+  </si>
+  <si>
+    <t>Update product backlog</t>
+  </si>
+  <si>
+    <t>Update sprint backlog</t>
+  </si>
+  <si>
+    <t>Update Use Case Models</t>
+  </si>
+  <si>
+    <t>Create Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Extra Details</t>
+  </si>
+  <si>
+    <t>User Story #3</t>
+  </si>
+  <si>
+    <t>User Story #2</t>
+  </si>
+  <si>
+    <t>User Story #17</t>
+  </si>
+  <si>
+    <t>As someone who plays board games offline, I would like to be able to play 2 players on the same device, so I can play with my relatives who don’t have their own tablet.</t>
+  </si>
+  <si>
+    <t>As a new player, I would like an option to practice against basic ai, so that I can slowly increase my skill.</t>
+  </si>
+  <si>
+    <t>Sprint Review 3</t>
+  </si>
+  <si>
+    <t>Update Product and Sprint backlog</t>
+  </si>
+  <si>
+    <t>Update SRS if needed</t>
+  </si>
+  <si>
+    <t>Update Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Create Domain Model Doc</t>
+  </si>
+  <si>
+    <t>Create Focus Group Doc</t>
+  </si>
+  <si>
+    <t>As someone who doesn’t have friends that play, I would like to have a matchmaking system, so I can play with people around the world.</t>
+  </si>
+  <si>
+    <t>User Story #12</t>
+  </si>
+  <si>
+    <t>As a variety loving user, I would like multiple gameplay modes, so that I won't get bored of just one.</t>
+  </si>
+  <si>
+    <t>Update SRS, Use Case, Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Update Domain Model</t>
+  </si>
+  <si>
+    <t>Create Configuration Management Plan</t>
+  </si>
+  <si>
+    <t>Update Configuration Mgmt Plan</t>
+  </si>
+  <si>
+    <t>Create Architecture Design Doc</t>
+  </si>
+  <si>
+    <t>Create Detailed Design Doc</t>
+  </si>
+  <si>
+    <t>User Story #4</t>
+  </si>
+  <si>
+    <t>As a colorblind user, I would like to have different color/indication options, so that I will be able to play with my handicap.</t>
+  </si>
+  <si>
+    <t>User Story #6</t>
+  </si>
+  <si>
+    <t>As a motor impaired user, I would like a click and place option, so that I am not locked out of playing by dragging mechanics I am unable to use.</t>
+  </si>
+  <si>
+    <t>User Story #14</t>
+  </si>
+  <si>
+    <t>As a potential new user, I would like a built in tutorial, so that I can learn the game without having to look up a guide.</t>
+  </si>
+  <si>
+    <t>Sprint Review 4</t>
+  </si>
+  <si>
+    <t>Finalize Product and Sprint backlog</t>
+  </si>
+  <si>
+    <t>Finalize SRS</t>
+  </si>
+  <si>
+    <t>Finalize Use Case</t>
+  </si>
+  <si>
+    <t>Finalize Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Fnalize Domain Model</t>
+  </si>
+  <si>
+    <t>Finalize Configuration Mgmt Plan</t>
+  </si>
+  <si>
+    <t>Finalize Architecture Design</t>
+  </si>
+  <si>
+    <t>Finalize Detailed Design</t>
+  </si>
+  <si>
+    <t>Create remaining tasks and future plan</t>
+  </si>
+  <si>
+    <t>Create Readme File</t>
+  </si>
+  <si>
+    <t>Update Readme</t>
+  </si>
+  <si>
+    <t>Finalize Readme</t>
+  </si>
+  <si>
+    <t>As someone with tremors, I would like a click and hold option, so that when I shake I do not misclick pieces or places.</t>
+  </si>
+  <si>
+    <t>User Story #7</t>
+  </si>
+  <si>
+    <t>User Story #5</t>
+  </si>
+  <si>
+    <t>As a visually impaired user, I would like to have a read-aloud option, so that I can be sure I’m picking the right piece.</t>
+  </si>
+  <si>
+    <t>User Story #10</t>
+  </si>
+  <si>
+    <t>As a slow player, I would like an option to save my current game, so that I can think about my turn overnight.</t>
+  </si>
+  <si>
+    <t>Sprint Review 5</t>
+  </si>
+  <si>
+    <t>Sprint Review 6</t>
+  </si>
+  <si>
+    <t>As a competitive user, I would like a ranked option, so that I can play against opponents of similar skill.</t>
+  </si>
+  <si>
+    <t>User Story #13</t>
+  </si>
+  <si>
+    <t>User Story #20</t>
+  </si>
+  <si>
+    <t>User Story #23</t>
+  </si>
+  <si>
+    <t>User Story #18</t>
+  </si>
+  <si>
+    <t>User Story #19</t>
+  </si>
+  <si>
+    <t>User Story #21</t>
+  </si>
+  <si>
+    <t>User Story #16</t>
+  </si>
+  <si>
+    <t>User Story #22</t>
+  </si>
+  <si>
+    <t>User Story #8</t>
+  </si>
+  <si>
+    <t>User Story #9</t>
+  </si>
+  <si>
+    <t>User Story #26</t>
+  </si>
+  <si>
+    <t>User Story #24</t>
+  </si>
+  <si>
+    <t>User Story #25</t>
+  </si>
+  <si>
+    <t>User Story #1</t>
+  </si>
+  <si>
+    <t>User Story #11</t>
+  </si>
+  <si>
+    <t>User Story #15</t>
+  </si>
+  <si>
+    <t>User Story #27</t>
+  </si>
+  <si>
+    <t>As a puzzle lover, I would like an option where the player has a preset board and has to decide the best move, so that I can test my knowledge of the game.</t>
+  </si>
+  <si>
+    <t>As someone with low system specs, I would like a low-power/low-graphics mode, so that I can play the game without constant freezing.</t>
+  </si>
+  <si>
+    <t>As a new player, I would like to see a hint system, so as I play I learn new tips about how to play.</t>
+  </si>
+  <si>
+    <t>As someone who uses a lot of social media, I would like an option to post screenshots of my games, so that I can share interesting moments with all my friends.</t>
+  </si>
+  <si>
+    <t>As a multitasking user, I would like a notification system that tells me when a move is made, so that I know when it is my turn to go.</t>
+  </si>
+  <si>
+    <t>As a speedrunner, I would like a timed option, so that I can ensure my games are always lightning fast.</t>
+  </si>
+  <si>
+    <t>As a completionist, I would like achievements in the game, so I can try to hunt down every trophy-worthy scenario.</t>
+  </si>
+  <si>
+    <t>As someone who mostly plays online, I would like a chat option, so that I can make new friends while playing the game.</t>
+  </si>
+  <si>
+    <t>As a parent, I would like the option to disable chat, so that my child does not get into dangerous situations online.</t>
+  </si>
+  <si>
+    <t>As a player who loves stats, I would like to see a stat page, so that I can see how many wins and losses I have.</t>
+  </si>
+  <si>
+    <t>As a parent, I would like to have a chat filter option, so that my child does not need to read curse words online.</t>
+  </si>
+  <si>
+    <t>As a competitive player, I would like to be able to send my opponents emotes, so they know how badly they are being beaten.</t>
+  </si>
+  <si>
+    <t>As someone who likes bright and colorful games, I would like to be able to choose the style/color of my pieces and board, so that my board never gets boring.</t>
+  </si>
+  <si>
+    <t>As a pro player, I would like an analysis system to measure the effectiveness of my turns, so that I can improve and expand on my abilities.</t>
+  </si>
+  <si>
+    <t>As someone who wants to support the dev team, I would like an option to buy an ad free version, so I can be rewarded for my support.</t>
+  </si>
+  <si>
+    <t>As a competitive player, I would like a live coaching option, so that professionals can help me improve my play.</t>
+  </si>
+  <si>
+    <t>Create a board that lists available pieces in text format and allows placement. T or S, D or L, H or S, C or S - TDHC is a tall dark hollow circle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -89,15 +386,25 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,11 +427,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,15 +651,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="141.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -370,128 +687,1316 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="G1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>5</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>5</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>5</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>5</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>5</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>6</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>6</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>6</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>6</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="3">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="G66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>8</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>8</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="3">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3">
+        <v>8</v>
+      </c>
+      <c r="G71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="3">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="3">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>9</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B76" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>10</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="3">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="3">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="G79" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>